--- a/biology/Botanique/Caborde_de_Chaudanne/Caborde_de_Chaudanne.xlsx
+++ b/biology/Botanique/Caborde_de_Chaudanne/Caborde_de_Chaudanne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Caborde de Chaudanne est une caborde, protégé des monuments historiques, situé à Besançon, en France.
 </t>
@@ -511,10 +523,12 @@
           <t>Localisation et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La caborde, située aux Chevanneys (petit Chaudanne), dans le quartier de Velotte, est datée du XVIIe ou XVIIIe siècle ; elle est inscrite aux monuments historiques le 13 novembre 1980[1].
-Désormais les anciens murets viticoles éffondrés (Murger (viticulture)) de ces flancs sud accueillent une végétation carastéristique d'éboulis thermophiles (associations à rumex à écussons et scrophulaire de Hoppe ou à Galéopsis à feuilles étroites)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La caborde, située aux Chevanneys (petit Chaudanne), dans le quartier de Velotte, est datée du XVIIe ou XVIIIe siècle ; elle est inscrite aux monuments historiques le 13 novembre 1980.
+Désormais les anciens murets viticoles éffondrés (Murger (viticulture)) de ces flancs sud accueillent une végétation carastéristique d'éboulis thermophiles (associations à rumex à écussons et scrophulaire de Hoppe ou à Galéopsis à feuilles étroites).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Construction circulaire, en pierre sèche, avec voûte encorbellée[3].</t>
+Construction circulaire, en pierre sèche, avec voûte encorbellée.</t>
         </is>
       </c>
     </row>
